--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -10986,21 +10986,21 @@
     </row>
     <row r="270">
       <c r="A270" s="4"/>
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" s="2"/>
-      <c r="G270" s="2"/>
-      <c r="H270" s="2"/>
-      <c r="I270" s="2"/>
-      <c r="J270" s="2"/>
-      <c r="K270" s="2"/>
-      <c r="L270" s="2"/>
-      <c r="M270" s="2"/>
-      <c r="N270" s="2"/>
-      <c r="O270" s="2"/>
-      <c r="P270" s="2"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="5"/>
+      <c r="D270" s="5"/>
+      <c r="E270" s="5"/>
+      <c r="F270" s="5"/>
+      <c r="G270" s="5"/>
+      <c r="H270" s="5"/>
+      <c r="I270" s="5"/>
+      <c r="J270" s="5"/>
+      <c r="K270" s="5"/>
+      <c r="L270" s="5"/>
+      <c r="M270" s="5"/>
+      <c r="N270" s="5"/>
+      <c r="O270" s="5"/>
+      <c r="P270" s="5"/>
       <c r="Q270" s="2"/>
       <c r="R270" s="2"/>
       <c r="S270" s="2"/>
@@ -11021,21 +11021,21 @@
     </row>
     <row r="271">
       <c r="A271" s="4"/>
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-      <c r="D271" s="2"/>
-      <c r="E271" s="2"/>
-      <c r="F271" s="2"/>
-      <c r="G271" s="2"/>
-      <c r="H271" s="2"/>
-      <c r="I271" s="2"/>
-      <c r="J271" s="2"/>
-      <c r="K271" s="2"/>
-      <c r="L271" s="2"/>
-      <c r="M271" s="2"/>
-      <c r="N271" s="2"/>
-      <c r="O271" s="2"/>
-      <c r="P271" s="2"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="5"/>
+      <c r="D271" s="5"/>
+      <c r="E271" s="5"/>
+      <c r="F271" s="5"/>
+      <c r="G271" s="5"/>
+      <c r="H271" s="5"/>
+      <c r="I271" s="5"/>
+      <c r="J271" s="5"/>
+      <c r="K271" s="5"/>
+      <c r="L271" s="5"/>
+      <c r="M271" s="5"/>
+      <c r="N271" s="5"/>
+      <c r="O271" s="5"/>
+      <c r="P271" s="5"/>
       <c r="Q271" s="2"/>
       <c r="R271" s="2"/>
       <c r="S271" s="2"/>
@@ -36571,7 +36571,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:P30 B31:P269">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:P30 B31:P271">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="140">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -339,6 +339,102 @@
   <si>
     <t>ΑΦΜ</t>
   </si>
+  <si>
+    <t>BAHAMAS</t>
+  </si>
+  <si>
+    <t>TIN (OU NIB)</t>
+  </si>
+  <si>
+    <t>C + 8 (SEM DV)</t>
+  </si>
+  <si>
+    <t>NOVA ZELÂNDIA</t>
+  </si>
+  <si>
+    <t>IRD NUMBER</t>
+  </si>
+  <si>
+    <t>MARROCOS</t>
+  </si>
+  <si>
+    <t>IDENTIFIANT FISCAL</t>
+  </si>
+  <si>
+    <t>8 A 10 (SEM DV)</t>
+  </si>
+  <si>
+    <t>REINO UNIDO</t>
+  </si>
+  <si>
+    <t>NIN OU NINO</t>
+  </si>
+  <si>
+    <t>UTR OU CHRN</t>
+  </si>
+  <si>
+    <t>2 PREFIXOS + 6 + DV(LETRA)</t>
+  </si>
+  <si>
+    <t>2 PREFIXOS + 6 A 7+ DV</t>
+  </si>
+  <si>
+    <t>CANADÁ</t>
+  </si>
+  <si>
+    <t>SIN</t>
+  </si>
+  <si>
+    <t>BN</t>
+  </si>
+  <si>
+    <t>ITÁLIA</t>
+  </si>
+  <si>
+    <t>CODICE FISCALE</t>
+  </si>
+  <si>
+    <t>PARTITA IVA</t>
+  </si>
+  <si>
+    <t>3 L SOBRENOME + 3 L NOME 
++ 2 ANO NASC + 1 L MÊS NASC 
++ 2 DIA NASC + 4 CÓD MUNIC + DV</t>
+  </si>
+  <si>
+    <t>7 + 3 CÓD PROVÍN + DV</t>
+  </si>
+  <si>
+    <t>CORÉIA DO SUL</t>
+  </si>
+  <si>
+    <t>RRN</t>
+  </si>
+  <si>
+    <t>BRN</t>
+  </si>
+  <si>
+    <t>AAMMDD + 1 PREFIXO + 5 + DV</t>
+  </si>
+  <si>
+    <t>9 + DV OU PREFIXO 16 + 9 + DV</t>
+  </si>
+  <si>
+    <t>LÍBANO</t>
+  </si>
+  <si>
+    <t>ÁFRICA DO SUL</t>
+  </si>
+  <si>
+    <t>TRN</t>
+  </si>
+  <si>
+    <t>AAMMDD + 4 CÓD GÊNERO 
++ L CÓD CIDADANIA + DV</t>
+  </si>
+  <si>
+    <t>AUSTRÁLIA</t>
+  </si>
 </sst>
 </file>
 
@@ -396,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -415,11 +511,17 @@
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2564,7 +2666,9 @@
       <c r="C30" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" s="5" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="5" t="s">
         <v>17</v>
       </c>
@@ -2620,22 +2724,54 @@
       <c r="AG30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="7"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
+      <c r="A31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -2655,22 +2791,54 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="7"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
+      <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -2690,22 +2858,54 @@
       <c r="AG32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
+      <c r="A33" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -2725,22 +2925,54 @@
       <c r="AG33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
+      <c r="A34" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M34" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -2760,22 +2992,54 @@
       <c r="AG34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
+      <c r="A35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P35" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -2794,58 +3058,122 @@
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
     </row>
-    <row r="36">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-      <c r="AA36" s="2"/>
-      <c r="AB36" s="2"/>
-      <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="2"/>
-      <c r="AG36" s="2"/>
+    <row r="36" ht="43.5" customHeight="1">
+      <c r="A36" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P36" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
+      <c r="A37" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -2865,22 +3193,54 @@
       <c r="AG37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="5"/>
+      <c r="A38" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -2900,42 +3260,76 @@
       <c r="AG38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-      <c r="AA39" s="2"/>
-      <c r="AB39" s="2"/>
-      <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="2"/>
-      <c r="AG39" s="2"/>
+      <c r="A39" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="4"/>
+      <c r="A40" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -11056,11 +11450,11 @@
     </row>
     <row r="272">
       <c r="A272" s="4"/>
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-      <c r="D272" s="2"/>
-      <c r="E272" s="2"/>
-      <c r="F272" s="2"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="5"/>
+      <c r="D272" s="5"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
       <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
@@ -11091,11 +11485,11 @@
     </row>
     <row r="273">
       <c r="A273" s="4"/>
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-      <c r="D273" s="2"/>
-      <c r="E273" s="2"/>
-      <c r="F273" s="2"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="5"/>
+      <c r="D273" s="5"/>
+      <c r="E273" s="5"/>
+      <c r="F273" s="5"/>
       <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
@@ -11126,11 +11520,11 @@
     </row>
     <row r="274">
       <c r="A274" s="4"/>
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-      <c r="D274" s="2"/>
-      <c r="E274" s="2"/>
-      <c r="F274" s="2"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="5"/>
+      <c r="D274" s="5"/>
+      <c r="E274" s="5"/>
+      <c r="F274" s="5"/>
       <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
@@ -36571,7 +36965,7 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:P30 B31:P271">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G3:P271">
       <formula1>"SIM,NÃO"</formula1>
     </dataValidation>
   </dataValidations>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="157">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -435,6 +435,58 @@
   <si>
     <t>AUSTRÁLIA</t>
   </si>
+  <si>
+    <t>TFN</t>
+  </si>
+  <si>
+    <t>ABN</t>
+  </si>
+  <si>
+    <t>10 + DV</t>
+  </si>
+  <si>
+    <t>EQUADOR</t>
+  </si>
+  <si>
+    <t>10 + 001</t>
+  </si>
+  <si>
+    <t>2 CÓD PROVÍN + PREFIXO 9 
++ 5 + DV + 001</t>
+  </si>
+  <si>
+    <t>SENEGAL</t>
+  </si>
+  <si>
+    <t>TAX ID</t>
+  </si>
+  <si>
+    <t>PREFIXO + 8</t>
+  </si>
+  <si>
+    <t>ÍNDIA</t>
+  </si>
+  <si>
+    <t>PAN</t>
+  </si>
+  <si>
+    <t>GSTIN</t>
+  </si>
+  <si>
+    <t>5 ALPHA + 4 + L</t>
+  </si>
+  <si>
+    <t>2 CÓD PROVÍN + NUM PAN + Z + DV</t>
+  </si>
+  <si>
+    <t>AUSTRIA</t>
+  </si>
+  <si>
+    <t>STEUERNUMMER</t>
+  </si>
+  <si>
+    <t>ATIN</t>
+  </si>
 </sst>
 </file>
 
@@ -3330,21 +3382,51 @@
       <c r="A40" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
+      <c r="B40" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -3364,57 +3446,121 @@
       <c r="AG40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="2"/>
-      <c r="AG41" s="2"/>
+      <c r="A41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="9"/>
+      <c r="AA41" s="9"/>
+      <c r="AB41" s="9"/>
+      <c r="AC41" s="9"/>
+      <c r="AD41" s="9"/>
+      <c r="AE41" s="9"/>
+      <c r="AF41" s="9"/>
+      <c r="AG41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
+      <c r="A42" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -3434,22 +3580,54 @@
       <c r="AG42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
-      <c r="O43" s="5"/>
-      <c r="P43" s="5"/>
+      <c r="A43" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -3469,22 +3647,54 @@
       <c r="AG43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
+      <c r="A44" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="169">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -487,6 +487,43 @@
   <si>
     <t>ATIN</t>
   </si>
+  <si>
+    <t>NIGÉRIA</t>
+  </si>
+  <si>
+    <t>NIN / TIN</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ID NUMBER</t>
+  </si>
+  <si>
+    <t>POLÔNIA</t>
+  </si>
+  <si>
+    <t>PESEL</t>
+  </si>
+  <si>
+    <t>YYMMDD + 4 + DV</t>
+  </si>
+  <si>
+    <t>RUSSIA</t>
+  </si>
+  <si>
+    <t>INN</t>
+  </si>
+  <si>
+    <t>10 + 2 DV</t>
+  </si>
+  <si>
+    <t>EL SALVADOR</t>
+  </si>
+  <si>
+    <t>4 CÓD REGIÃO + 6 + 
+3 CÓD ESTABEL + DV</t>
+  </si>
 </sst>
 </file>
 
@@ -3714,22 +3751,54 @@
       <c r="AG44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
+      <c r="A45" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -3749,22 +3818,54 @@
       <c r="AG45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
+      <c r="A46" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -3784,22 +3885,52 @@
       <c r="AG46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -3819,22 +3950,54 @@
       <c r="AG47" s="2"/>
     </row>
     <row r="48">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
+      <c r="A48" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -3854,22 +4017,54 @@
       <c r="AG48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
+      <c r="A49" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M49" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="181">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -524,6 +524,44 @@
     <t>4 CÓD REGIÃO + 6 + 
 3 CÓD ESTABEL + DV</t>
   </si>
+  <si>
+    <t>EMIRADOS ÁRABES UNIDOS</t>
+  </si>
+  <si>
+    <t>EMIRATES ID</t>
+  </si>
+  <si>
+    <t>3 CÓD EMISS + AAMMDD 
+EMISSÃO + 7 + DV</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>NIF OU ID NACIONAL</t>
+  </si>
+  <si>
+    <t>ARC</t>
+  </si>
+  <si>
+    <t>1 L (LOCAL DE EMISSÃO) + 
+1 CÓD GÊNERO + 7 + DV</t>
+  </si>
+  <si>
+    <t>CABO VERDE</t>
+  </si>
+  <si>
+    <t>8 (DIFERENCIA PJ DE PF) + DV</t>
+  </si>
+  <si>
+    <t>PANAMÁ</t>
+  </si>
+  <si>
+    <t>1 CÓD PROVÍNCIA + 3 CÓD + 3 + 2 DV</t>
+  </si>
+  <si>
+    <t>2 CÓD PROVÍNCIA + 3 CÓD + 3 + 2 DV</t>
+  </si>
 </sst>
 </file>
 
@@ -4084,22 +4122,54 @@
       <c r="AG49" s="2"/>
     </row>
     <row r="50">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="5"/>
+      <c r="A50" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -4119,22 +4189,54 @@
       <c r="AG50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-      <c r="P51" s="5"/>
+      <c r="A51" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M51" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -4154,22 +4256,54 @@
       <c r="AG51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
+      <c r="A52" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M52" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
@@ -4189,22 +4323,54 @@
       <c r="AG52" s="2"/>
     </row>
     <row r="53">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
-      <c r="L53" s="5"/>
-      <c r="M53" s="5"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-      <c r="P53" s="5"/>
+      <c r="A53" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M53" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="206">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -557,10 +557,86 @@
     <t>PANAMÁ</t>
   </si>
   <si>
-    <t>1 CÓD PROVÍNCIA + 3 CÓD + 3 + 2 DV</t>
+    <t>2 CÓD PROVÍNCIA + 3 CÓD + 3 + 2 DV</t>
   </si>
   <si>
-    <t>2 CÓD PROVÍNCIA + 3 CÓD + 3 + 2 DV</t>
+    <t>PAQUISTÃO</t>
+  </si>
+  <si>
+    <t>CNIC/NIC</t>
+  </si>
+  <si>
+    <t>5 CÓD PROVÍNCIA + 7 + DV</t>
+  </si>
+  <si>
+    <t>GANA</t>
+  </si>
+  <si>
+    <t>GHANACARD PIN</t>
+  </si>
+  <si>
+    <t>GRA TIN</t>
+  </si>
+  <si>
+    <t>3 L CÓD PAÍS + 8 OU 9 + DV</t>
+  </si>
+  <si>
+    <t>3 PREFIXOS (COM LETRA) + 8</t>
+  </si>
+  <si>
+    <t>BÉLGICA</t>
+  </si>
+  <si>
+    <t>RIJKSREGISTERNUMMER</t>
+  </si>
+  <si>
+    <t>AAMMDD + 3 PREFIXO + DV</t>
+  </si>
+  <si>
+    <t>ANGUILLA</t>
+  </si>
+  <si>
+    <t>2 L + 8 (SEM DV)</t>
+  </si>
+  <si>
+    <t>3 L + 8 (SEM DV)</t>
+  </si>
+  <si>
+    <t>MOÇAMBIQUE</t>
+  </si>
+  <si>
+    <t>NUIT</t>
+  </si>
+  <si>
+    <t>BRUNEI</t>
+  </si>
+  <si>
+    <t>2 L CÓD CATEGORIA + 8 (SEM DV)</t>
+  </si>
+  <si>
+    <t>ROMÊNIA</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>1 PREFIXO SÉCULO E GÊNERO + 
+AAMMDD + 2 CÓD DISTRITO + 3 + DV</t>
+  </si>
+  <si>
+    <t>REPÚBLICA DOMINICANA</t>
+  </si>
+  <si>
+    <t>CÉDULA DE IDENTIDAD Y ELECTORAL</t>
+  </si>
+  <si>
+    <t>RNC</t>
+  </si>
+  <si>
+    <t>3 CÓD PROVÍNCIA + 7 + DV</t>
+  </si>
+  <si>
+    <t>1 PREFIXO + 8 + DV</t>
   </si>
 </sst>
 </file>
@@ -619,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -649,6 +725,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4339,7 +4418,7 @@
         <v>179</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>20</v>
@@ -4390,22 +4469,54 @@
       <c r="AG53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="5"/>
-      <c r="N54" s="5"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="5"/>
+      <c r="A54" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -4425,22 +4536,54 @@
       <c r="AG54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
+      <c r="A55" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M55" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
@@ -4460,22 +4603,54 @@
       <c r="AG55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
-      <c r="L56" s="5"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
+      <c r="A56" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
@@ -4495,22 +4670,54 @@
       <c r="AG56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
+      <c r="A57" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
@@ -4530,22 +4737,54 @@
       <c r="AG57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="5"/>
+      <c r="A58" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M58" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
@@ -4565,22 +4804,54 @@
       <c r="AG58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
+      <c r="A59" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
@@ -4600,22 +4871,54 @@
       <c r="AG59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
+      <c r="A60" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
@@ -4635,22 +4938,54 @@
       <c r="AG60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
-      <c r="L61" s="5"/>
-      <c r="M61" s="5"/>
-      <c r="N61" s="5"/>
-      <c r="O61" s="5"/>
-      <c r="P61" s="5"/>
+      <c r="A61" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M61" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>

--- a/especificacoes-nifs.xlsx
+++ b/especificacoes-nifs.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="215">
   <si>
     <t>NOME DO NIF - PF</t>
   </si>
@@ -638,6 +638,35 @@
   <si>
     <t>1 PREFIXO + 8 + DV</t>
   </si>
+  <si>
+    <t>HUNGRIA</t>
+  </si>
+  <si>
+    <t>ADÓAZONOSÍTÓ JEL</t>
+  </si>
+  <si>
+    <t>FILIPINAS</t>
+  </si>
+  <si>
+    <t>9 + 3 PADRÃO (SEM DV)</t>
+  </si>
+  <si>
+    <t>6 REGISTRO + 3 CÓD + 
+3 CLASSIF (SEM DV)</t>
+  </si>
+  <si>
+    <t>CONGO</t>
+  </si>
+  <si>
+    <t>FINLÂNDIA</t>
+  </si>
+  <si>
+    <t>HENKILÔTUNNUS</t>
+  </si>
+  <si>
+    <t>DDMMAA (NIVER) + PREFIXO (L) + 
+3 + 1 CÓD GÊNERO + DV (L)</t>
+  </si>
 </sst>
 </file>
 
@@ -5005,22 +5034,54 @@
       <c r="AG61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
+      <c r="A62" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M62" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
@@ -5040,22 +5101,54 @@
       <c r="AG62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
-      <c r="L63" s="5"/>
-      <c r="M63" s="5"/>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5"/>
-      <c r="P63" s="5"/>
+      <c r="A63" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
@@ -5075,22 +5168,54 @@
       <c r="AG63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="5"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
+      <c r="A64" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
@@ -5110,22 +5235,54 @@
       <c r="AG64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5"/>
-      <c r="P65" s="5"/>
+      <c r="A65" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
